--- a/evaluation/results/isolation_forest/augmented/none_2/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/none_2/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9181494661921709</v>
+        <v>0.3327402135231317</v>
       </c>
       <c r="C2">
-        <v>0.32</v>
+        <v>0.06516290726817042</v>
       </c>
       <c r="D2">
-        <v>0.5714285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E2">
-        <v>0.4102564102564102</v>
+        <v>0.1217798594847775</v>
       </c>
       <c r="F2">
-        <v>0.4938271604938271</v>
+        <v>0.2544031311154599</v>
       </c>
       <c r="G2">
-        <v>0.5546666666666666</v>
+        <v>0.6151046405823476</v>
       </c>
       <c r="H2">
-        <v>0.7538790797217764</v>
+        <v>0.8103263777421081</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="K2">
-        <v>500</v>
+        <v>161</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9765625</v>
+        <v>0.9877300613496932</v>
       </c>
       <c r="C2">
-        <v>0.9363295880149812</v>
+        <v>0.301498127340824</v>
       </c>
       <c r="D2">
-        <v>0.9560229445506692</v>
+        <v>0.4619799139167862</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.32</v>
+        <v>0.06516290726817042</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D3">
-        <v>0.4102564102564102</v>
+        <v>0.1217798594847775</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9181494661921709</v>
+        <v>0.3327402135231317</v>
       </c>
       <c r="C4">
-        <v>0.9181494661921709</v>
+        <v>0.3327402135231317</v>
       </c>
       <c r="D4">
-        <v>0.9181494661921709</v>
+        <v>0.3327402135231317</v>
       </c>
       <c r="E4">
-        <v>0.9181494661921709</v>
+        <v>0.3327402135231317</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.64828125</v>
+        <v>0.5264464843089318</v>
       </c>
       <c r="C5">
-        <v>0.7538790797217763</v>
+        <v>0.6150347779561263</v>
       </c>
       <c r="D5">
-        <v>0.6831396774035396</v>
+        <v>0.2918798867007819</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9438512010676158</v>
+        <v>0.9417658615022153</v>
       </c>
       <c r="C6">
-        <v>0.9181494661921709</v>
+        <v>0.3327402135231317</v>
       </c>
       <c r="D6">
-        <v>0.9288317293189268</v>
+        <v>0.4450304450127003</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>161</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
